--- a/product_data/processing_metadata/C5/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C5/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE.v0/processing_metadata/C5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kabaldry\OneDrive - University of Tasmania\Documents\Projects\BIO-MATE\BIO-MATE\product_data\processing_metadata\C5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0403E3F5-1889-4CD1-9FAC-5D39C8D5863D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B370A32-E872-4C94-946E-4B177D89299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="165">
   <si>
     <t>49NZ20031209</t>
   </si>
@@ -51,30 +51,15 @@
     <t>49NZ20170208</t>
   </si>
   <si>
-    <t>49NZ20031019</t>
-  </si>
-  <si>
-    <t>49NZ20040127</t>
-  </si>
-  <si>
     <t>49NZ20130105</t>
   </si>
   <si>
     <t>33RO20161119</t>
   </si>
   <si>
-    <t>33RO20080229</t>
-  </si>
-  <si>
     <t>74JC20151217</t>
   </si>
   <si>
-    <t>74JC19950320</t>
-  </si>
-  <si>
-    <t>74JC20190221</t>
-  </si>
-  <si>
     <t>91AA20171209</t>
   </si>
   <si>
@@ -421,13 +406,136 @@
   </si>
   <si>
     <t>74JC19921026</t>
+  </si>
+  <si>
+    <t>29HE19951203</t>
+  </si>
+  <si>
+    <t>29HE19960117</t>
+  </si>
+  <si>
+    <t>31DS19940126</t>
+  </si>
+  <si>
+    <t>35MF19980121</t>
+  </si>
+  <si>
+    <t>35MF19980818</t>
+  </si>
+  <si>
+    <t>35MF19981205</t>
+  </si>
+  <si>
+    <t>35MF20000117</t>
+  </si>
+  <si>
+    <t>35MF20000719</t>
+  </si>
+  <si>
+    <t>35MF20010103</t>
+  </si>
+  <si>
+    <t>35MF20020104</t>
+  </si>
+  <si>
+    <t>35MF20040103</t>
+  </si>
+  <si>
+    <t>49HH20011127</t>
+  </si>
+  <si>
+    <t>49ZS19921203</t>
+  </si>
+  <si>
+    <t>61TG20030217</t>
+  </si>
+  <si>
+    <t>35MF20070104</t>
+  </si>
+  <si>
+    <t>35MF19950927</t>
+  </si>
+  <si>
+    <t>35MF19940126</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/CCHDO/31DSCG94_1/exchange_ctd</t>
+  </si>
+  <si>
+    <t>Discoverer</t>
+  </si>
+  <si>
+    <t>Gregory C. Johnson - Bruce A. Taft</t>
+  </si>
+  <si>
+    <t>gregory.c.johnson@noaa.gov</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/PANGEAE/91AH20140402/chl</t>
+  </si>
+  <si>
+    <t>.tab</t>
+  </si>
+  <si>
+    <t>PANGEA</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>Stephanie de Villiers</t>
+  </si>
+  <si>
+    <t>Department of Environmental Affairs</t>
+  </si>
+  <si>
+    <t>steph.devilliers@gmail.com</t>
+  </si>
+  <si>
+    <t>10.1594/PANGAEA.848875</t>
+  </si>
+  <si>
+    <t>S.A. Agulhas II</t>
+  </si>
+  <si>
+    <t>S.A. Agulhas</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Date/Time</t>
+  </si>
+  <si>
+    <t>%Y-%m-%dT%H:%M</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Pres</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>Fluores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +547,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -458,17 +574,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -781,1738 +901,1825 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E1F602-FBD5-4365-9721-E3AE3B06DFBC}">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AJ1" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AN1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AO1" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AP1" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AR1" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AS1" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AT1" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AU1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AV1" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AW1" t="s">
         <v>62</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AX1" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AY1" t="s">
         <v>64</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AZ1" t="s">
         <v>65</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BA1" t="s">
         <v>66</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:53">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
+      <c r="R2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
         <v>80</v>
       </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
         <v>81</v>
       </c>
-      <c r="O2" t="s">
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="P2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" t="s">
         <v>83</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Y2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" t="s">
         <v>84</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AA2" t="s">
         <v>85</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AB2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s">
         <v>86</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AG2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" t="s">
         <v>87</v>
       </c>
-      <c r="V2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AI2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>88</v>
       </c>
-      <c r="Y2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AK2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL2" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AM2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" t="s">
         <v>90</v>
       </c>
-      <c r="AB2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>95</v>
-      </c>
       <c r="AO2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AP2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AQ2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AR2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AS2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AT2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AU2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AV2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AW2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AX2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AZ2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="BA2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
         <v>76</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>77</v>
       </c>
-      <c r="H3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" t="s">
         <v>79</v>
       </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
         <v>80</v>
       </c>
-      <c r="N3" t="s">
+      <c r="T3" t="s">
         <v>81</v>
       </c>
-      <c r="O3" t="s">
+      <c r="U3" t="s">
         <v>82</v>
       </c>
-      <c r="P3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="V3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" t="s">
         <v>83</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Y3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z3" t="s">
         <v>84</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AA3" t="s">
         <v>85</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AB3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" t="s">
         <v>86</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AG3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" t="s">
         <v>87</v>
       </c>
-      <c r="V3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" t="s">
-        <v>79</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="AI3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>88</v>
       </c>
-      <c r="Y3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AK3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL3" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AM3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN3" t="s">
         <v>90</v>
       </c>
-      <c r="AB3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>95</v>
-      </c>
       <c r="AO3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AP3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AQ3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AR3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AS3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AT3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AU3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AV3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AW3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AX3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AZ3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="BA3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" t="s">
+      <c r="O4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" t="s">
+      <c r="R4" t="s">
         <v>79</v>
       </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="S4" t="s">
         <v>80</v>
       </c>
-      <c r="N4" t="s">
+      <c r="T4" t="s">
         <v>81</v>
       </c>
-      <c r="O4" t="s">
+      <c r="U4" t="s">
         <v>82</v>
       </c>
-      <c r="P4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="V4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
         <v>83</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z4" t="s">
         <v>84</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AA4" t="s">
         <v>85</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AB4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" t="s">
         <v>86</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AG4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" t="s">
         <v>87</v>
       </c>
-      <c r="V4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" t="s">
-        <v>79</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="AI4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>88</v>
       </c>
-      <c r="Y4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AK4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL4" t="s">
         <v>89</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AM4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" t="s">
         <v>90</v>
       </c>
-      <c r="AB4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>95</v>
-      </c>
       <c r="AO4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AP4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AQ4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AR4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AS4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AT4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AU4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AV4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AW4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AX4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AZ4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="BA4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
+      <c r="O5" t="s">
         <v>77</v>
       </c>
-      <c r="H5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" t="s">
         <v>79</v>
       </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="S5" t="s">
         <v>80</v>
       </c>
-      <c r="N5" t="s">
+      <c r="T5" t="s">
         <v>81</v>
       </c>
-      <c r="O5" t="s">
+      <c r="U5" t="s">
         <v>82</v>
       </c>
-      <c r="P5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="V5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
         <v>83</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" t="s">
         <v>84</v>
       </c>
-      <c r="S5" t="s">
+      <c r="AA5" t="s">
         <v>85</v>
       </c>
-      <c r="T5" t="s">
+      <c r="AB5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF5" t="s">
         <v>86</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AG5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" t="s">
         <v>87</v>
       </c>
-      <c r="V5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="AI5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>88</v>
       </c>
-      <c r="Y5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AK5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL5" t="s">
         <v>89</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AM5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN5" t="s">
         <v>90</v>
       </c>
-      <c r="AB5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>95</v>
-      </c>
       <c r="AO5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AP5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AQ5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AR5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AS5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AT5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AU5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AV5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AW5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AX5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AZ5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="BA5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
+      <c r="O6" t="s">
         <v>77</v>
       </c>
-      <c r="H6" t="s">
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" t="s">
+        <v>82</v>
+      </c>
+      <c r="V6" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
         <v>102</v>
       </c>
-      <c r="I6" t="s">
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="S8" t="s">
         <v>80</v>
       </c>
-      <c r="N6" t="s">
+      <c r="T8" t="s">
         <v>81</v>
       </c>
-      <c r="O6" t="s">
+      <c r="U8" t="s">
         <v>82</v>
       </c>
-      <c r="P6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="V8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" t="s">
         <v>83</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Y8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z8" t="s">
         <v>84</v>
       </c>
-      <c r="S6" t="s">
+      <c r="AA8" t="s">
         <v>85</v>
       </c>
-      <c r="T6" t="s">
+      <c r="AB8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" t="s">
         <v>86</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AG8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH8" t="s">
         <v>87</v>
       </c>
-      <c r="V6" t="s">
-        <v>79</v>
-      </c>
-      <c r="W6" t="s">
-        <v>79</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="AI8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>88</v>
       </c>
-      <c r="Y6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="AK8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL8" t="s">
         <v>89</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AM8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN8" t="s">
         <v>90</v>
       </c>
-      <c r="AB6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR6" t="s">
+      <c r="AO8" t="s">
         <v>103</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AP8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>104</v>
       </c>
-      <c r="AT6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV6" t="s">
+      <c r="AR8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU8" t="s">
         <v>105</v>
       </c>
-      <c r="AW6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX6" t="s">
+      <c r="AV8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW8" t="s">
         <v>106</v>
       </c>
-      <c r="AY6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
-      <c r="E8" t="s">
-        <v>6</v>
+      <c r="AX8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
         <v>112</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="N9" t="s">
         <v>76</v>
       </c>
-      <c r="G9" t="s">
+      <c r="O9" t="s">
         <v>77</v>
       </c>
-      <c r="H9" t="s">
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" t="s">
         <v>79</v>
       </c>
-      <c r="I9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="S9" t="s">
         <v>80</v>
       </c>
-      <c r="N9" t="s">
+      <c r="T9" t="s">
         <v>81</v>
       </c>
-      <c r="O9" t="s">
+      <c r="U9" t="s">
         <v>82</v>
       </c>
-      <c r="P9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="V9" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" t="s">
         <v>83</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Y9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" t="s">
         <v>84</v>
       </c>
-      <c r="S9" t="s">
+      <c r="AA9" t="s">
         <v>85</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AB9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" t="s">
         <v>86</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AG9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH9" t="s">
         <v>87</v>
       </c>
-      <c r="V9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W9" t="s">
-        <v>79</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="AI9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>88</v>
       </c>
-      <c r="Y9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="AK9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL9" t="s">
         <v>89</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AM9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN9" t="s">
         <v>90</v>
       </c>
-      <c r="AB9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>95</v>
-      </c>
       <c r="AO9" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AP9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AQ9" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AR9" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="AS9" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AT9" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AU9" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AV9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AW9" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AX9" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AY9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AZ9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="BA9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
         <v>76</v>
       </c>
-      <c r="G10" t="s">
+      <c r="O10" t="s">
         <v>77</v>
       </c>
-      <c r="H10" t="s">
+      <c r="P10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" t="s">
         <v>79</v>
       </c>
-      <c r="I10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="S10" t="s">
         <v>80</v>
       </c>
-      <c r="N10" t="s">
+      <c r="T10" t="s">
         <v>81</v>
       </c>
-      <c r="O10" t="s">
+      <c r="U10" t="s">
         <v>82</v>
       </c>
-      <c r="P10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="V10" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" t="s">
         <v>83</v>
       </c>
-      <c r="R10" t="s">
+      <c r="Y10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z10" t="s">
         <v>84</v>
       </c>
-      <c r="S10" t="s">
+      <c r="AA10" t="s">
         <v>85</v>
       </c>
-      <c r="T10" t="s">
+      <c r="AB10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" t="s">
         <v>86</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AG10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH10" t="s">
         <v>87</v>
       </c>
-      <c r="V10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="AI10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>88</v>
       </c>
-      <c r="Y10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="AK10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL10" t="s">
         <v>89</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AM10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN10" t="s">
         <v>90</v>
       </c>
-      <c r="AB10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>95</v>
-      </c>
       <c r="AO10" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AP10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AQ10" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AR10" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="AS10" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AT10" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AU10" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AV10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AW10" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AX10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AY10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AZ10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="BA10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" t="s">
         <v>77</v>
       </c>
-      <c r="H11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" t="s">
         <v>80</v>
       </c>
-      <c r="N11" t="s">
+      <c r="T11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" t="s">
+      <c r="U11" t="s">
         <v>82</v>
       </c>
-      <c r="P11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="V11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X11" t="s">
         <v>83</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Y11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" t="s">
         <v>84</v>
       </c>
-      <c r="S11" t="s">
+      <c r="AA11" t="s">
         <v>85</v>
       </c>
-      <c r="T11" t="s">
+      <c r="AB11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF11" t="s">
         <v>86</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AG11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH11" t="s">
         <v>87</v>
       </c>
-      <c r="V11" t="s">
-        <v>79</v>
-      </c>
-      <c r="W11" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="AI11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>88</v>
       </c>
-      <c r="Y11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="AK11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL11" t="s">
         <v>89</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AM11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN11" t="s">
         <v>90</v>
       </c>
-      <c r="AB11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>95</v>
-      </c>
       <c r="AO11" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="AP11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AQ11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AR11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AS11" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="AT11" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="AU11" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AV11" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AW11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AX11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AZ11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="BA11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
       <c r="F13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R13" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" t="s">
-        <v>85</v>
-      </c>
-      <c r="T13" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" t="s">
-        <v>87</v>
-      </c>
-      <c r="V13" t="s">
-        <v>79</v>
-      </c>
-      <c r="W13" t="s">
-        <v>79</v>
-      </c>
-      <c r="X13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>128</v>
+        <v>147</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" t="s">
-        <v>79</v>
+        <v>150</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
       </c>
       <c r="Q14" t="s">
-        <v>83</v>
-      </c>
-      <c r="R14" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="S14" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="T14" t="s">
+        <v>157</v>
+      </c>
+      <c r="U14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF14" t="s">
         <v>86</v>
       </c>
-      <c r="U14" t="s">
+      <c r="AG14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH14" t="s">
         <v>87</v>
       </c>
-      <c r="V14" t="s">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s">
-        <v>79</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="AI14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>88</v>
       </c>
-      <c r="Y14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="AK14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL14" t="s">
         <v>89</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AM14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN14" t="s">
         <v>90</v>
       </c>
-      <c r="AB14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>95</v>
-      </c>
       <c r="AO14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:53">
@@ -2521,193 +2728,436 @@
       </c>
     </row>
     <row r="16" spans="1:53">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>78</v>
+      </c>
+      <c r="R16" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16" t="s">
+        <v>82</v>
+      </c>
+      <c r="V16" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" t="s">
+        <v>74</v>
+      </c>
+      <c r="X16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:53">
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:53">
-      <c r="E18" t="s">
-        <v>14</v>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:53">
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:53">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R20" t="s">
+        <v>79</v>
+      </c>
+      <c r="S20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s">
+        <v>81</v>
+      </c>
+      <c r="U20" t="s">
+        <v>82</v>
+      </c>
+      <c r="V20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W20" t="s">
+        <v>74</v>
+      </c>
+      <c r="X20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:53">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
       <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" t="s">
-        <v>82</v>
-      </c>
-      <c r="P21" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>83</v>
-      </c>
-      <c r="R21" t="s">
-        <v>84</v>
-      </c>
-      <c r="S21" t="s">
-        <v>85</v>
-      </c>
-      <c r="T21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U21" t="s">
-        <v>87</v>
-      </c>
-      <c r="V21" t="s">
-        <v>79</v>
-      </c>
-      <c r="W21" t="s">
-        <v>79</v>
-      </c>
-      <c r="X21" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:53">
-      <c r="E22" s="2" t="s">
-        <v>18</v>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53">
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53">
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53">
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53">
+      <c r="E26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53">
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53">
+      <c r="E28" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53">
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53">
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53">
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53">
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" display="https://cchdo.ucsd.edu/cruise/74JC002_1" xr:uid="{6773C507-43FC-4FED-BF98-45AA968E0A48}"/>
+    <hyperlink ref="J14" r:id="rId1" xr:uid="{A631CD43-7212-43D1-AE01-DA07FD8B3476}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/product_data/processing_metadata/C5/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C5/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kabaldry\OneDrive - University of Tasmania\Documents\Projects\BIO-MATE\BIO-MATE\product_data\processing_metadata\C5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B370A32-E872-4C94-946E-4B177D89299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{8B370A32-E872-4C94-946E-4B177D89299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FA21212-156A-45B2-A631-ACDBF310AD44}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="197">
   <si>
     <t>49NZ20031209</t>
   </si>
@@ -60,12 +60,6 @@
     <t>74JC20151217</t>
   </si>
   <si>
-    <t>91AA20171209</t>
-  </si>
-  <si>
-    <t>91AH20170907</t>
-  </si>
-  <si>
     <t>91AH20140402</t>
   </si>
   <si>
@@ -420,39 +414,9 @@
     <t>35MF19980121</t>
   </si>
   <si>
-    <t>35MF19980818</t>
-  </si>
-  <si>
-    <t>35MF19981205</t>
-  </si>
-  <si>
-    <t>35MF20000117</t>
-  </si>
-  <si>
-    <t>35MF20000719</t>
-  </si>
-  <si>
-    <t>35MF20010103</t>
-  </si>
-  <si>
-    <t>35MF20020104</t>
-  </si>
-  <si>
     <t>35MF20040103</t>
   </si>
   <si>
-    <t>49HH20011127</t>
-  </si>
-  <si>
-    <t>49ZS19921203</t>
-  </si>
-  <si>
-    <t>61TG20030217</t>
-  </si>
-  <si>
-    <t>35MF20070104</t>
-  </si>
-  <si>
     <t>35MF19950927</t>
   </si>
   <si>
@@ -498,9 +462,6 @@
     <t>S.A. Agulhas II</t>
   </si>
   <si>
-    <t>S.A. Agulhas</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -529,13 +490,148 @@
   </si>
   <si>
     <t>Fluores</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/PANGEAE/91AH20140402/ctd/split</t>
+  </si>
+  <si>
+    <t>Marc Picheral</t>
+  </si>
+  <si>
+    <t>Tara Oceans</t>
+  </si>
+  <si>
+    <t>SV Tara</t>
+  </si>
+  <si>
+    <t>picheral@obs-vlfr.fr</t>
+  </si>
+  <si>
+    <t>10.1594/PANGAEA.836323</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Date.Time</t>
+  </si>
+  <si>
+    <t>%Y-%m-%dT%H:%M:S</t>
+  </si>
+  <si>
+    <t>Press..dbar.</t>
+  </si>
+  <si>
+    <t>Chla</t>
+  </si>
+  <si>
+    <t>bac660</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/CCHDO/325020190403/exchange_ctd</t>
+  </si>
+  <si>
+    <t>Thomas G. Thomson</t>
+  </si>
+  <si>
+    <t>Alejandro Orsi</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University</t>
+  </si>
+  <si>
+    <t>aorsi@tamu.edu</t>
+  </si>
+  <si>
+    <t>10.7942/C29660</t>
+  </si>
+  <si>
+    <t>CTDBACKSCATTER</t>
+  </si>
+  <si>
+    <t>SISMER</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/PANGEAE/29HE19951203/ctd/split</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/PANGEAE/29HE19960117/ctd/split</t>
+  </si>
+  <si>
+    <t>Nicolas Metzl</t>
+  </si>
+  <si>
+    <t>Marion Dufresne</t>
+  </si>
+  <si>
+    <t>CNRS</t>
+  </si>
+  <si>
+    <t>nicolas.metzl@upmc.fr</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>PRES</t>
+  </si>
+  <si>
+    <t>TEMP</t>
+  </si>
+  <si>
+    <t>PSAL</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/SISMER/35MF19980121/ctd/split</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/SISMER/35MF20040103/ctd/split</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/SISMER/35MF19940126/ctd/split</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/SISMER/35MF19950927/ctd/split</t>
+  </si>
+  <si>
+    <t>%Y-%m-%dT%H:%M:%S</t>
+  </si>
+  <si>
+    <t>DOXY</t>
+  </si>
+  <si>
+    <t>Catherine Jeandel</t>
+  </si>
+  <si>
+    <t>catherine.jeandel@cnes.fr</t>
+  </si>
+  <si>
+    <t>Gerard Ruzie</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Hespérides</t>
+  </si>
+  <si>
+    <t>Marc A Garcia</t>
+  </si>
+  <si>
+    <t>garcial@etseccpb.upc.es</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,13 +652,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -578,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -586,6 +694,10 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -901,2264 +1013,2811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E1F602-FBD5-4365-9721-E3AE3B06DFBC}">
-  <dimension ref="A1:BA34"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>55</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>56</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>59</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>62</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>63</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>64</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:53">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>75</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
         <v>76</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>77</v>
       </c>
-      <c r="P2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>78</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>79</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" t="s">
         <v>81</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s">
         <v>82</v>
       </c>
-      <c r="V2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AG2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2" t="s">
         <v>87</v>
       </c>
-      <c r="AI2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN2" t="s">
         <v>88</v>
       </c>
-      <c r="AK2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>90</v>
-      </c>
       <c r="AO2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AP2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AQ2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AR2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AT2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AU2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AV2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AW2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AX2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AY2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BA2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
         <v>74</v>
       </c>
-      <c r="J3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>75</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" t="s">
         <v>76</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>77</v>
       </c>
-      <c r="P3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>78</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>79</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>80</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" t="s">
         <v>81</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s">
         <v>82</v>
       </c>
-      <c r="V3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" t="s">
         <v>84</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AG3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH3" t="s">
         <v>85</v>
       </c>
-      <c r="AB3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AI3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>86</v>
       </c>
-      <c r="AG3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AK3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL3" t="s">
         <v>87</v>
       </c>
-      <c r="AI3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ3" t="s">
+      <c r="AM3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN3" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>90</v>
-      </c>
       <c r="AO3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AQ3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AR3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AT3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AU3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AV3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AW3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AX3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AY3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BA3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="s">
         <v>73</v>
       </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
         <v>74</v>
       </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>75</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" t="s">
         <v>76</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>77</v>
       </c>
-      <c r="P4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>78</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>79</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>80</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
         <v>81</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" t="s">
         <v>82</v>
       </c>
-      <c r="V4" t="s">
-        <v>74</v>
-      </c>
-      <c r="W4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF4" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AG4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH4" t="s">
         <v>85</v>
       </c>
-      <c r="AB4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AI4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>86</v>
       </c>
-      <c r="AG4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH4" t="s">
+      <c r="AK4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL4" t="s">
         <v>87</v>
       </c>
-      <c r="AI4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN4" t="s">
         <v>88</v>
       </c>
-      <c r="AK4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>90</v>
-      </c>
       <c r="AO4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AP4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AQ4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AR4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AT4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AU4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AV4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AW4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AX4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AY4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BA4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>75</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" t="s">
         <v>76</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>77</v>
       </c>
-      <c r="P5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>78</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>79</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>80</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
         <v>81</v>
       </c>
-      <c r="U5" t="s">
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" t="s">
         <v>82</v>
       </c>
-      <c r="V5" t="s">
-        <v>74</v>
-      </c>
-      <c r="W5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>83</v>
       </c>
-      <c r="Y5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF5" t="s">
         <v>84</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AG5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH5" t="s">
         <v>85</v>
       </c>
-      <c r="AB5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AI5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>86</v>
       </c>
-      <c r="AG5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="AK5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL5" t="s">
         <v>87</v>
       </c>
-      <c r="AI5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ5" t="s">
+      <c r="AM5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN5" t="s">
         <v>88</v>
       </c>
-      <c r="AK5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>90</v>
-      </c>
       <c r="AO5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AP5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AQ5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AR5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AT5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AU5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AV5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AW5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AX5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AY5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BA5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS6" t="s">
         <v>97</v>
       </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" t="s">
-        <v>80</v>
-      </c>
-      <c r="T6" t="s">
-        <v>81</v>
-      </c>
-      <c r="U6" t="s">
-        <v>82</v>
-      </c>
-      <c r="V6" t="s">
-        <v>74</v>
-      </c>
-      <c r="W6" t="s">
-        <v>74</v>
-      </c>
-      <c r="X6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR6" t="s">
+      <c r="AT6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV6" t="s">
         <v>98</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AW6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX6" t="s">
         <v>99</v>
       </c>
-      <c r="AT6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>101</v>
-      </c>
       <c r="AY6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BA6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
       <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
         <v>74</v>
       </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>75</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" t="s">
         <v>76</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>77</v>
       </c>
-      <c r="P7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>78</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>79</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>80</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
         <v>81</v>
       </c>
-      <c r="U7" t="s">
+      <c r="Y7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" t="s">
         <v>82</v>
       </c>
-      <c r="V7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" t="s">
-        <v>74</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>83</v>
       </c>
-      <c r="Y7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF7" t="s">
         <v>84</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AG7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH7" t="s">
         <v>85</v>
       </c>
-      <c r="AB7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AI7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>86</v>
       </c>
-      <c r="AG7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AK7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL7" t="s">
         <v>87</v>
       </c>
-      <c r="AI7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ7" t="s">
+      <c r="AM7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN7" t="s">
         <v>88</v>
       </c>
-      <c r="AK7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>90</v>
-      </c>
       <c r="AO7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU7" t="s">
         <v>103</v>
       </c>
-      <c r="AP7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ7" t="s">
+      <c r="AV7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW7" t="s">
         <v>104</v>
       </c>
-      <c r="AR7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>106</v>
-      </c>
       <c r="AX7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AY7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BA7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
         <v>74</v>
       </c>
-      <c r="I8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>75</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
         <v>76</v>
       </c>
-      <c r="O8" t="s">
+      <c r="R8" t="s">
         <v>77</v>
       </c>
-      <c r="P8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>78</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>79</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>80</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" t="s">
         <v>81</v>
       </c>
-      <c r="U8" t="s">
+      <c r="Y8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z8" t="s">
         <v>82</v>
       </c>
-      <c r="V8" t="s">
-        <v>74</v>
-      </c>
-      <c r="W8" t="s">
-        <v>74</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>83</v>
       </c>
-      <c r="Y8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF8" t="s">
         <v>84</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AG8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH8" t="s">
         <v>85</v>
       </c>
-      <c r="AB8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AI8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>86</v>
       </c>
-      <c r="AG8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="AK8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL8" t="s">
         <v>87</v>
       </c>
-      <c r="AI8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ8" t="s">
+      <c r="AM8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN8" t="s">
         <v>88</v>
       </c>
-      <c r="AK8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>90</v>
-      </c>
       <c r="AO8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU8" t="s">
         <v>103</v>
       </c>
-      <c r="AP8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ8" t="s">
+      <c r="AV8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW8" t="s">
         <v>104</v>
       </c>
-      <c r="AR8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>106</v>
-      </c>
       <c r="AX8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AY8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BA8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W9" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS9" t="s">
         <v>112</v>
       </c>
-      <c r="J9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" t="s">
-        <v>80</v>
-      </c>
-      <c r="T9" t="s">
-        <v>81</v>
-      </c>
-      <c r="U9" t="s">
-        <v>82</v>
-      </c>
-      <c r="V9" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" t="s">
-        <v>74</v>
-      </c>
-      <c r="X9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>114</v>
-      </c>
       <c r="AT9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV9" t="s">
         <v>98</v>
       </c>
-      <c r="AU9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>100</v>
-      </c>
       <c r="AW9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AX9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AY9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BA9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
         <v>74</v>
       </c>
-      <c r="J10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>75</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" t="s">
         <v>76</v>
       </c>
-      <c r="O10" t="s">
+      <c r="R10" t="s">
         <v>77</v>
       </c>
-      <c r="P10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>78</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>79</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>80</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
+        <v>72</v>
+      </c>
+      <c r="W10" t="s">
+        <v>72</v>
+      </c>
+      <c r="X10" t="s">
         <v>81</v>
       </c>
-      <c r="U10" t="s">
+      <c r="Y10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" t="s">
         <v>82</v>
       </c>
-      <c r="V10" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" t="s">
-        <v>74</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="AA10" t="s">
         <v>83</v>
       </c>
-      <c r="Y10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="AB10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF10" t="s">
         <v>84</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH10" t="s">
         <v>85</v>
       </c>
-      <c r="AB10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="AI10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>86</v>
       </c>
-      <c r="AG10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AK10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL10" t="s">
         <v>87</v>
       </c>
-      <c r="AI10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ10" t="s">
+      <c r="AM10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN10" t="s">
         <v>88</v>
       </c>
-      <c r="AK10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="AO10" t="s">
         <v>52</v>
       </c>
-      <c r="AN10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>54</v>
-      </c>
       <c r="AP10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AQ10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AR10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU10" t="s">
         <v>58</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AV10" t="s">
         <v>98</v>
       </c>
-      <c r="AU10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>100</v>
-      </c>
       <c r="AW10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AX10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AY10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BA10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
         <v>74</v>
       </c>
-      <c r="J11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>75</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" t="s">
         <v>76</v>
       </c>
-      <c r="O11" t="s">
+      <c r="R11" t="s">
         <v>77</v>
       </c>
-      <c r="P11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>78</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>79</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>80</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X11" t="s">
         <v>81</v>
       </c>
-      <c r="U11" t="s">
+      <c r="Y11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" t="s">
         <v>82</v>
       </c>
-      <c r="V11" t="s">
-        <v>74</v>
-      </c>
-      <c r="W11" t="s">
-        <v>74</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="AA11" t="s">
         <v>83</v>
       </c>
-      <c r="Y11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF11" t="s">
         <v>84</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AG11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH11" t="s">
         <v>85</v>
       </c>
-      <c r="AB11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AI11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>86</v>
       </c>
-      <c r="AG11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AK11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL11" t="s">
         <v>87</v>
       </c>
-      <c r="AI11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ11" t="s">
+      <c r="AM11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN11" t="s">
         <v>88</v>
       </c>
-      <c r="AK11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>90</v>
-      </c>
       <c r="AO11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AP11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AQ11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AR11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AT11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AU11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AV11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AW11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AX11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AY11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BA11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:53">
-      <c r="E12" t="s">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>141</v>
+      </c>
+      <c r="G12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S12" t="s">
+        <v>143</v>
+      </c>
+      <c r="T12" t="s">
+        <v>144</v>
+      </c>
+      <c r="U12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:53">
-      <c r="E13" t="s">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
         <v>153</v>
+      </c>
+      <c r="I13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S13" t="s">
+        <v>159</v>
+      </c>
+      <c r="T13" t="s">
+        <v>160</v>
+      </c>
+      <c r="U13" t="s">
+        <v>159</v>
+      </c>
+      <c r="X13" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" t="s">
-        <v>152</v>
+        <v>72</v>
+      </c>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
+        <v>72</v>
       </c>
       <c r="Q14" t="s">
-        <v>155</v>
+        <v>76</v>
+      </c>
+      <c r="R14" t="s">
+        <v>77</v>
       </c>
       <c r="S14" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>156</v>
+        <v>80</v>
+      </c>
+      <c r="V14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W14" t="s">
+        <v>72</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>81</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>72</v>
       </c>
       <c r="Z14" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s">
-        <v>159</v>
+        <v>83</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>72</v>
       </c>
       <c r="AF14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>86</v>
       </c>
-      <c r="AG14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AK14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL14" t="s">
         <v>87</v>
       </c>
-      <c r="AI14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AJ14" t="s">
+      <c r="AM14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN14" t="s">
         <v>88</v>
       </c>
-      <c r="AK14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>90</v>
-      </c>
       <c r="AO14" t="s">
-        <v>164</v>
+        <v>52</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:53">
-      <c r="E15" s="1" t="s">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" t="s">
+        <v>72</v>
+      </c>
+      <c r="W15" t="s">
+        <v>72</v>
+      </c>
+      <c r="X15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
         <v>70</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
-      </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" t="s">
         <v>74</v>
       </c>
-      <c r="J16" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>75</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" t="s">
         <v>76</v>
       </c>
-      <c r="O16" t="s">
+      <c r="R16" t="s">
         <v>77</v>
       </c>
-      <c r="P16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>78</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>79</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>80</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
+        <v>72</v>
+      </c>
+      <c r="W16" t="s">
+        <v>72</v>
+      </c>
+      <c r="X16" t="s">
         <v>81</v>
       </c>
-      <c r="U16" t="s">
+      <c r="Y16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" t="s">
         <v>82</v>
       </c>
-      <c r="V16" t="s">
-        <v>74</v>
-      </c>
-      <c r="W16" t="s">
-        <v>74</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="AA16" t="s">
         <v>83</v>
       </c>
-      <c r="Y16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" t="s">
+      <c r="AB16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF16" t="s">
         <v>84</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AG16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH16" t="s">
         <v>85</v>
       </c>
-      <c r="AB16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s">
+      <c r="AI16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>86</v>
       </c>
-      <c r="AG16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AK16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL16" t="s">
         <v>87</v>
       </c>
-      <c r="AI16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ16" t="s">
+      <c r="AM16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN16" t="s">
         <v>88</v>
       </c>
-      <c r="AK16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>54</v>
-      </c>
       <c r="AP16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="AU16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AV16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AW16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AX16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AY16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BA16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:53">
-      <c r="E17" s="2" t="s">
-        <v>13</v>
+    <row r="17" spans="1:41">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N17" s="6">
+        <v>-99999</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>158</v>
+      </c>
+      <c r="S17" t="s">
+        <v>178</v>
+      </c>
+      <c r="T17" t="s">
+        <v>188</v>
+      </c>
+      <c r="U17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:41">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
       <c r="D18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>124</v>
+      <c r="H18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N18" s="6">
+        <v>-99999</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>158</v>
+      </c>
+      <c r="S18" t="s">
+        <v>178</v>
+      </c>
+      <c r="T18" t="s">
+        <v>188</v>
+      </c>
+      <c r="U18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:41">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
       <c r="D19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>125</v>
+      <c r="H19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="N19" s="6">
+        <v>-99999</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>158</v>
+      </c>
+      <c r="S19" t="s">
+        <v>178</v>
+      </c>
+      <c r="T19" t="s">
+        <v>188</v>
+      </c>
+      <c r="U19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N20" s="6">
+        <v>-99999</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>158</v>
+      </c>
+      <c r="S20" t="s">
+        <v>178</v>
+      </c>
+      <c r="T20" t="s">
+        <v>188</v>
+      </c>
+      <c r="U20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
         <v>142</v>
       </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="S21" t="s">
+        <v>193</v>
+      </c>
+      <c r="T21" t="s">
+        <v>144</v>
+      </c>
+      <c r="U21" t="s">
         <v>143</v>
       </c>
-      <c r="I20" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="X21" t="s">
         <v>144</v>
       </c>
-      <c r="M20" t="s">
+      <c r="Z21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
         <v>75</v>
       </c>
-      <c r="N20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>78</v>
-      </c>
-      <c r="R20" t="s">
-        <v>79</v>
-      </c>
-      <c r="S20" t="s">
-        <v>80</v>
-      </c>
-      <c r="T20" t="s">
-        <v>81</v>
-      </c>
-      <c r="U20" t="s">
-        <v>82</v>
-      </c>
-      <c r="V20" t="s">
-        <v>74</v>
-      </c>
-      <c r="W20" t="s">
-        <v>74</v>
-      </c>
-      <c r="X20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z20" t="s">
+      <c r="Q22" t="s">
+        <v>142</v>
+      </c>
+      <c r="S22" t="s">
+        <v>193</v>
+      </c>
+      <c r="T22" t="s">
+        <v>144</v>
+      </c>
+      <c r="U22" t="s">
+        <v>143</v>
+      </c>
+      <c r="X22" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF22" t="s">
         <v>84</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AG22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH22" t="s">
         <v>85</v>
       </c>
-      <c r="AB20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF20" t="s">
+      <c r="AI22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>86</v>
       </c>
-      <c r="AG20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AK22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL22" t="s">
         <v>87</v>
       </c>
-      <c r="AI20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:53">
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:53">
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:53">
-      <c r="E26" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:53">
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:53">
-      <c r="E28" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:53">
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:53">
-      <c r="D30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:53">
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:53">
-      <c r="E32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" t="s">
-        <v>139</v>
+      <c r="AO22" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J14" r:id="rId1" xr:uid="{A631CD43-7212-43D1-AE01-DA07FD8B3476}"/>
+    <hyperlink ref="J12" r:id="rId1" xr:uid="{A631CD43-7212-43D1-AE01-DA07FD8B3476}"/>
+    <hyperlink ref="J15" r:id="rId2" xr:uid="{12E1FA95-3E17-4171-A75D-5F9052E2EC30}"/>
+    <hyperlink ref="J18" r:id="rId3" xr:uid="{551EF7CC-50E8-40AC-8262-C0A4BE5B98F9}"/>
+    <hyperlink ref="J17" r:id="rId4" xr:uid="{35B5BB5C-C679-454E-97EF-82FF777A7014}"/>
+    <hyperlink ref="J20" r:id="rId5" xr:uid="{DF48CDF4-AAFB-46D3-95A6-F9E5331F7877}"/>
+    <hyperlink ref="J21" r:id="rId6" xr:uid="{69F5D7C4-5962-4E66-B87E-A3EBC11A349C}"/>
+    <hyperlink ref="J22" r:id="rId7" xr:uid="{3604BA82-35F2-451E-B211-42573A89F825}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/product_data/processing_metadata/C5/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C5/PROF_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{8B370A32-E872-4C94-946E-4B177D89299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FA21212-156A-45B2-A631-ACDBF310AD44}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{8B370A32-E872-4C94-946E-4B177D89299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD52E7F7-C03F-4601-BB49-AD71F1ADBAD3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="193">
   <si>
     <t>49NZ20031209</t>
   </si>
@@ -435,18 +435,9 @@
     <t>gregory.c.johnson@noaa.gov</t>
   </si>
   <si>
-    <t>E:/Data_downloads/PANGEAE/91AH20140402/chl</t>
-  </si>
-  <si>
-    <t>.tab</t>
-  </si>
-  <si>
     <t>PANGEA</t>
   </si>
   <si>
-    <t>tab</t>
-  </si>
-  <si>
     <t>Stephanie de Villiers</t>
   </si>
   <si>
@@ -465,9 +456,6 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Date/Time</t>
-  </si>
-  <si>
     <t>%Y-%m-%dT%H:%M</t>
   </si>
   <si>
@@ -477,9 +465,6 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Pres</t>
-  </si>
-  <si>
     <t>Temp</t>
   </si>
   <si>
@@ -516,12 +501,6 @@
     <t>Date.Time</t>
   </si>
   <si>
-    <t>%Y-%m-%dT%H:%M:S</t>
-  </si>
-  <si>
-    <t>Press..dbar.</t>
-  </si>
-  <si>
     <t>Chla</t>
   </si>
   <si>
@@ -625,6 +604,15 @@
   </si>
   <si>
     <t>garcial@etseccpb.upc.es</t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/TARA_PANGEAE/35XI20090905/ctd/split</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1004,13 @@
   <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" t="s">
@@ -2737,85 +2728,85 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
         <v>133</v>
-      </c>
-      <c r="D12" t="s">
-        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>139</v>
+      </c>
+      <c r="S12" t="s">
+        <v>154</v>
+      </c>
+      <c r="T12" t="s">
+        <v>140</v>
+      </c>
+      <c r="U12" t="s">
+        <v>154</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z12" t="s">
         <v>141</v>
       </c>
-      <c r="G12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="AA12" t="s">
         <v>142</v>
-      </c>
-      <c r="S12" t="s">
-        <v>143</v>
-      </c>
-      <c r="T12" t="s">
-        <v>144</v>
-      </c>
-      <c r="U12" t="s">
-        <v>143</v>
-      </c>
-      <c r="X12" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>146</v>
       </c>
       <c r="AF12" t="s">
         <v>84</v>
       </c>
       <c r="AG12" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="AH12" t="s">
         <v>85</v>
       </c>
       <c r="AI12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s">
         <v>86</v>
       </c>
       <c r="AK12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AL12" t="s">
         <v>87</v>
       </c>
       <c r="AM12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AN12" t="s">
         <v>88</v>
       </c>
       <c r="AO12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:53">
@@ -2826,79 +2817,82 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
         <v>70</v>
       </c>
       <c r="H13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q13" t="s">
         <v>153</v>
       </c>
-      <c r="I13" t="s">
+      <c r="S13" t="s">
         <v>154</v>
       </c>
-      <c r="J13" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>158</v>
-      </c>
-      <c r="S13" t="s">
-        <v>159</v>
-      </c>
       <c r="T13" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="U13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="Z13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AA13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AF13" t="s">
         <v>84</v>
       </c>
       <c r="AG13" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="AH13" t="s">
         <v>85</v>
       </c>
       <c r="AI13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s">
         <v>86</v>
       </c>
       <c r="AK13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s">
         <v>87</v>
       </c>
       <c r="AO13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AQ13" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AR13" t="s">
         <v>96</v>
@@ -3067,7 +3061,7 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
@@ -3076,22 +3070,22 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s">
         <v>73</v>
@@ -3175,7 +3169,7 @@
         <v>96</v>
       </c>
       <c r="AS15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AT15" t="s">
         <v>96</v>
@@ -3329,28 +3323,28 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
         <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N17" s="6">
         <v>-99999</v>
@@ -3359,49 +3353,49 @@
         <v>75</v>
       </c>
       <c r="Q17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="T17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="U17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Z17" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AA17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s">
         <v>84</v>
       </c>
       <c r="AG17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AH17" t="s">
         <v>85</v>
       </c>
       <c r="AI17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AJ17" t="s">
         <v>86</v>
       </c>
       <c r="AK17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AL17" t="s">
         <v>87</v>
       </c>
       <c r="AM17" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AN17" t="s">
         <v>88</v>
@@ -3415,28 +3409,28 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
         <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N18" s="6">
         <v>-99999</v>
@@ -3445,49 +3439,49 @@
         <v>75</v>
       </c>
       <c r="Q18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="T18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="U18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Z18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AA18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s">
         <v>84</v>
       </c>
       <c r="AG18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AH18" t="s">
         <v>85</v>
       </c>
       <c r="AI18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AJ18" t="s">
         <v>86</v>
       </c>
       <c r="AK18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AL18" t="s">
         <v>87</v>
       </c>
       <c r="AM18" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s">
         <v>88</v>
@@ -3501,25 +3495,25 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E19" t="s">
         <v>128</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
         <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="N19" s="6">
         <v>-99999</v>
@@ -3528,43 +3522,43 @@
         <v>75</v>
       </c>
       <c r="Q19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="T19" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="U19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Z19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AA19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s">
         <v>84</v>
       </c>
       <c r="AG19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AH19" t="s">
         <v>85</v>
       </c>
       <c r="AI19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AJ19" t="s">
         <v>86</v>
       </c>
       <c r="AK19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AL19" t="s">
         <v>87</v>
@@ -3578,28 +3572,28 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E20" t="s">
         <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N20" s="6">
         <v>-99999</v>
@@ -3608,43 +3602,43 @@
         <v>75</v>
       </c>
       <c r="Q20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="T20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="U20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="X20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Z20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AA20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s">
         <v>84</v>
       </c>
       <c r="AG20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AH20" t="s">
         <v>85</v>
       </c>
       <c r="AI20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AJ20" t="s">
         <v>86</v>
       </c>
       <c r="AK20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AL20" t="s">
         <v>87</v>
@@ -3661,73 +3655,73 @@
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
         <v>75</v>
       </c>
       <c r="Q21" t="s">
+        <v>139</v>
+      </c>
+      <c r="S21" t="s">
+        <v>186</v>
+      </c>
+      <c r="T21" t="s">
+        <v>140</v>
+      </c>
+      <c r="U21" t="s">
+        <v>186</v>
+      </c>
+      <c r="X21" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA21" t="s">
         <v>142</v>
-      </c>
-      <c r="S21" t="s">
-        <v>193</v>
-      </c>
-      <c r="T21" t="s">
-        <v>144</v>
-      </c>
-      <c r="U21" t="s">
-        <v>143</v>
-      </c>
-      <c r="X21" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>146</v>
       </c>
       <c r="AF21" t="s">
         <v>84</v>
       </c>
       <c r="AG21" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="AH21" t="s">
         <v>85</v>
       </c>
       <c r="AI21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AJ21" t="s">
         <v>86</v>
       </c>
       <c r="AK21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AL21" t="s">
         <v>87</v>
       </c>
       <c r="AO21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -3738,73 +3732,73 @@
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
         <v>75</v>
       </c>
       <c r="Q22" t="s">
+        <v>139</v>
+      </c>
+      <c r="S22" t="s">
+        <v>186</v>
+      </c>
+      <c r="T22" t="s">
+        <v>140</v>
+      </c>
+      <c r="U22" t="s">
+        <v>186</v>
+      </c>
+      <c r="X22" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA22" t="s">
         <v>142</v>
-      </c>
-      <c r="S22" t="s">
-        <v>193</v>
-      </c>
-      <c r="T22" t="s">
-        <v>144</v>
-      </c>
-      <c r="U22" t="s">
-        <v>143</v>
-      </c>
-      <c r="X22" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>146</v>
       </c>
       <c r="AF22" t="s">
         <v>84</v>
       </c>
       <c r="AG22" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="AH22" t="s">
         <v>85</v>
       </c>
       <c r="AI22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AJ22" t="s">
         <v>86</v>
       </c>
       <c r="AK22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AL22" t="s">
         <v>87</v>
       </c>
       <c r="AO22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/C5/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C5/PROF_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{8B370A32-E872-4C94-946E-4B177D89299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD52E7F7-C03F-4601-BB49-AD71F1ADBAD3}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{8B370A32-E872-4C94-946E-4B177D89299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{504C778F-B635-4ADC-B76A-EEF7300EF9B7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="220">
   <si>
     <t>49NZ20031209</t>
   </si>
@@ -492,9 +492,6 @@
     <t>picheral@obs-vlfr.fr</t>
   </si>
   <si>
-    <t>10.1594/PANGAEA.836323</t>
-  </si>
-  <si>
     <t>Station</t>
   </si>
   <si>
@@ -613,6 +610,90 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>citations</t>
+  </si>
+  <si>
+    <t>49NZ20031209_prof</t>
+  </si>
+  <si>
+    <t>74JC20151217_prof</t>
+  </si>
+  <si>
+    <t>49NZ20031106_prof</t>
+  </si>
+  <si>
+    <t>49NZ20130105_prof</t>
+  </si>
+  <si>
+    <t>33RO20161119_prof</t>
+  </si>
+  <si>
+    <t>74JC19921026_prof</t>
+  </si>
+  <si>
+    <t>RUB320161220_prof</t>
+  </si>
+  <si>
+    <t>325020190403_prof</t>
+  </si>
+  <si>
+    <t>31DS19940126_prof</t>
+  </si>
+  <si>
+    <t>49NZ20030803_prof</t>
+  </si>
+  <si>
+    <t>49NZ20030909_prof</t>
+  </si>
+  <si>
+    <t>91AH20140402_prof</t>
+  </si>
+  <si>
+    <t>35XI20090905_prof</t>
+  </si>
+  <si>
+    <t>35MF19980121_prof</t>
+  </si>
+  <si>
+    <t>35MF20040103_prof</t>
+  </si>
+  <si>
+    <t>35MF19940126_prof</t>
+  </si>
+  <si>
+    <t>35MF19950927_prof</t>
+  </si>
+  <si>
+    <t>29HE19951203_prof</t>
+  </si>
+  <si>
+    <t>29HE19960117_prof</t>
+  </si>
+  <si>
+    <t>49NZ20170208_prof</t>
+  </si>
+  <si>
+    <t>10.1594/PANGAEA.836321</t>
+  </si>
+  <si>
+    <t>10.1594/PANGAEA.825643</t>
+  </si>
+  <si>
+    <t>49NZ20121128_prof</t>
+  </si>
+  <si>
+    <t>10.17600/95200100</t>
+  </si>
+  <si>
+    <t>10.17600/94200020</t>
+  </si>
+  <si>
+    <t>10.17600/98200090</t>
+  </si>
+  <si>
+    <t>10.17600/4200010</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E1F602-FBD5-4365-9721-E3AE3B06DFBC}">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1012,7 +1093,7 @@
     <col min="5" max="5" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1047,133 +1128,136 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>56</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>57</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>58</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>59</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>60</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>61</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>62</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>63</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1204,54 +1288,54 @@
       <c r="J2" t="s">
         <v>72</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N2" t="s">
         <v>73</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>74</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>75</v>
       </c>
-      <c r="P2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" t="s">
         <v>76</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>77</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>78</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>79</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>80</v>
       </c>
-      <c r="V2" t="s">
-        <v>72</v>
-      </c>
       <c r="W2" t="s">
         <v>72</v>
       </c>
       <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" t="s">
-        <v>72</v>
-      </c>
       <c r="Z2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>83</v>
       </c>
-      <c r="AB2" t="s">
-        <v>72</v>
-      </c>
       <c r="AC2" t="s">
         <v>72</v>
       </c>
@@ -1262,35 +1346,35 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG2" t="s">
         <v>84</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>44</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>85</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>86</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>48</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>87</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>88</v>
       </c>
-      <c r="AO2" t="s">
-        <v>72</v>
-      </c>
       <c r="AP2" t="s">
         <v>72</v>
       </c>
@@ -1327,8 +1411,11 @@
       <c r="BA2" t="s">
         <v>72</v>
       </c>
+      <c r="BB2" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1359,54 +1446,54 @@
       <c r="J3" t="s">
         <v>72</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N3" t="s">
         <v>73</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>74</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>75</v>
       </c>
-      <c r="P3" t="s">
-        <v>72</v>
-      </c>
       <c r="Q3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" t="s">
         <v>76</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>77</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>78</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>79</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>80</v>
       </c>
-      <c r="V3" t="s">
-        <v>72</v>
-      </c>
       <c r="W3" t="s">
         <v>72</v>
       </c>
       <c r="X3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" t="s">
-        <v>72</v>
-      </c>
       <c r="Z3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>83</v>
       </c>
-      <c r="AB3" t="s">
-        <v>72</v>
-      </c>
       <c r="AC3" t="s">
         <v>72</v>
       </c>
@@ -1417,35 +1504,35 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>44</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>85</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>46</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>86</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>48</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>87</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>50</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>88</v>
       </c>
-      <c r="AO3" t="s">
-        <v>72</v>
-      </c>
       <c r="AP3" t="s">
         <v>72</v>
       </c>
@@ -1482,8 +1569,11 @@
       <c r="BA3" t="s">
         <v>72</v>
       </c>
+      <c r="BB3" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1514,54 +1604,54 @@
       <c r="J4" t="s">
         <v>72</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" t="s">
+        <v>202</v>
+      </c>
+      <c r="N4" t="s">
         <v>73</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>74</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>75</v>
       </c>
-      <c r="P4" t="s">
-        <v>72</v>
-      </c>
       <c r="Q4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" t="s">
         <v>76</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>77</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>78</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>79</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>80</v>
       </c>
-      <c r="V4" t="s">
-        <v>72</v>
-      </c>
       <c r="W4" t="s">
         <v>72</v>
       </c>
       <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" t="s">
-        <v>72</v>
-      </c>
       <c r="Z4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" t="s">
         <v>82</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>83</v>
       </c>
-      <c r="AB4" t="s">
-        <v>72</v>
-      </c>
       <c r="AC4" t="s">
         <v>72</v>
       </c>
@@ -1572,35 +1662,35 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG4" t="s">
         <v>84</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>44</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>85</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>46</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>86</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>48</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>87</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>50</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>88</v>
       </c>
-      <c r="AO4" t="s">
-        <v>72</v>
-      </c>
       <c r="AP4" t="s">
         <v>72</v>
       </c>
@@ -1637,8 +1727,11 @@
       <c r="BA4" t="s">
         <v>72</v>
       </c>
+      <c r="BB4" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1669,54 +1762,54 @@
       <c r="J5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>203</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>74</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>75</v>
       </c>
-      <c r="P5" t="s">
-        <v>72</v>
-      </c>
       <c r="Q5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" t="s">
         <v>76</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>77</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>78</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>79</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>80</v>
       </c>
-      <c r="V5" t="s">
-        <v>72</v>
-      </c>
       <c r="W5" t="s">
         <v>72</v>
       </c>
       <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
         <v>81</v>
       </c>
-      <c r="Y5" t="s">
-        <v>72</v>
-      </c>
       <c r="Z5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" t="s">
         <v>82</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>83</v>
       </c>
-      <c r="AB5" t="s">
-        <v>72</v>
-      </c>
       <c r="AC5" t="s">
         <v>72</v>
       </c>
@@ -1727,35 +1820,35 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG5" t="s">
         <v>84</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>44</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>85</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>46</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>86</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>48</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>87</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>50</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>88</v>
       </c>
-      <c r="AO5" t="s">
-        <v>72</v>
-      </c>
       <c r="AP5" t="s">
         <v>72</v>
       </c>
@@ -1792,8 +1885,11 @@
       <c r="BA5" t="s">
         <v>72</v>
       </c>
+      <c r="BB5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1824,54 +1920,54 @@
       <c r="J6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N6" t="s">
         <v>73</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>74</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>75</v>
       </c>
-      <c r="P6" t="s">
-        <v>72</v>
-      </c>
       <c r="Q6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" t="s">
         <v>76</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>77</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>78</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>79</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>80</v>
       </c>
-      <c r="V6" t="s">
-        <v>72</v>
-      </c>
       <c r="W6" t="s">
         <v>72</v>
       </c>
       <c r="X6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" t="s">
         <v>81</v>
       </c>
-      <c r="Y6" t="s">
-        <v>72</v>
-      </c>
       <c r="Z6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s">
         <v>82</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>83</v>
       </c>
-      <c r="AB6" t="s">
-        <v>72</v>
-      </c>
       <c r="AC6" t="s">
         <v>72</v>
       </c>
@@ -1882,73 +1978,76 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG6" t="s">
         <v>84</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>85</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>46</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>86</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>48</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>87</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>50</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>88</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>52</v>
       </c>
-      <c r="AP6" t="s">
-        <v>72</v>
-      </c>
       <c r="AQ6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR6" t="s">
         <v>54</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>96</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>97</v>
       </c>
-      <c r="AT6" t="s">
-        <v>72</v>
-      </c>
       <c r="AU6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV6" t="s">
         <v>58</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>98</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>60</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>99</v>
       </c>
-      <c r="AY6" t="s">
-        <v>72</v>
-      </c>
       <c r="AZ6" t="s">
         <v>72</v>
       </c>
       <c r="BA6" t="s">
         <v>72</v>
       </c>
+      <c r="BB6" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1979,54 +2078,54 @@
       <c r="J7" t="s">
         <v>72</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>215</v>
+      </c>
+      <c r="N7" t="s">
         <v>73</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>74</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>75</v>
       </c>
-      <c r="P7" t="s">
-        <v>72</v>
-      </c>
       <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
         <v>76</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>77</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>78</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>79</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>80</v>
       </c>
-      <c r="V7" t="s">
-        <v>72</v>
-      </c>
       <c r="W7" t="s">
         <v>72</v>
       </c>
       <c r="X7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" t="s">
         <v>81</v>
       </c>
-      <c r="Y7" t="s">
-        <v>72</v>
-      </c>
       <c r="Z7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA7" t="s">
         <v>82</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>83</v>
       </c>
-      <c r="AB7" t="s">
-        <v>72</v>
-      </c>
       <c r="AC7" t="s">
         <v>72</v>
       </c>
@@ -2037,73 +2136,76 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG7" t="s">
         <v>84</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>44</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>85</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>46</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>86</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>48</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>87</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>50</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>88</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>101</v>
       </c>
-      <c r="AP7" t="s">
-        <v>72</v>
-      </c>
       <c r="AQ7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR7" t="s">
         <v>102</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>96</v>
       </c>
-      <c r="AS7" t="s">
-        <v>72</v>
-      </c>
       <c r="AT7" t="s">
         <v>72</v>
       </c>
       <c r="AU7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV7" t="s">
         <v>103</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AW7" t="s">
         <v>98</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>104</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>99</v>
       </c>
-      <c r="AY7" t="s">
-        <v>72</v>
-      </c>
       <c r="AZ7" t="s">
         <v>72</v>
       </c>
       <c r="BA7" t="s">
         <v>72</v>
       </c>
+      <c r="BB7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2134,54 +2236,54 @@
       <c r="J8" t="s">
         <v>72</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N8" t="s">
         <v>73</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>74</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>75</v>
       </c>
-      <c r="P8" t="s">
-        <v>72</v>
-      </c>
       <c r="Q8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" t="s">
         <v>76</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>77</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>78</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>79</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>80</v>
       </c>
-      <c r="V8" t="s">
-        <v>72</v>
-      </c>
       <c r="W8" t="s">
         <v>72</v>
       </c>
       <c r="X8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" t="s">
         <v>81</v>
       </c>
-      <c r="Y8" t="s">
-        <v>72</v>
-      </c>
       <c r="Z8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" t="s">
         <v>82</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>83</v>
       </c>
-      <c r="AB8" t="s">
-        <v>72</v>
-      </c>
       <c r="AC8" t="s">
         <v>72</v>
       </c>
@@ -2192,73 +2294,76 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG8" t="s">
         <v>84</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>44</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>85</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>46</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>86</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>48</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>87</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>50</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>88</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>101</v>
       </c>
-      <c r="AP8" t="s">
-        <v>72</v>
-      </c>
       <c r="AQ8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR8" t="s">
         <v>102</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>96</v>
       </c>
-      <c r="AS8" t="s">
-        <v>72</v>
-      </c>
       <c r="AT8" t="s">
         <v>72</v>
       </c>
       <c r="AU8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV8" t="s">
         <v>103</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AW8" t="s">
         <v>98</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>104</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>99</v>
       </c>
-      <c r="AY8" t="s">
-        <v>72</v>
-      </c>
       <c r="AZ8" t="s">
         <v>72</v>
       </c>
       <c r="BA8" t="s">
         <v>72</v>
       </c>
+      <c r="BB8" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2289,54 +2394,54 @@
       <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9" t="s">
         <v>73</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>74</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>75</v>
       </c>
-      <c r="P9" t="s">
-        <v>72</v>
-      </c>
       <c r="Q9" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" t="s">
         <v>76</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>77</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>78</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>79</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>80</v>
       </c>
-      <c r="V9" t="s">
-        <v>72</v>
-      </c>
       <c r="W9" t="s">
         <v>72</v>
       </c>
       <c r="X9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" t="s">
         <v>81</v>
       </c>
-      <c r="Y9" t="s">
-        <v>72</v>
-      </c>
       <c r="Z9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" t="s">
         <v>82</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>83</v>
       </c>
-      <c r="AB9" t="s">
-        <v>72</v>
-      </c>
       <c r="AC9" t="s">
         <v>72</v>
       </c>
@@ -2347,38 +2452,38 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG9" t="s">
         <v>84</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>44</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>85</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>46</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>86</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>48</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>87</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>50</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
         <v>88</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>52</v>
       </c>
-      <c r="AP9" t="s">
-        <v>72</v>
-      </c>
       <c r="AQ9" t="s">
         <v>72</v>
       </c>
@@ -2386,20 +2491,20 @@
         <v>72</v>
       </c>
       <c r="AS9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT9" t="s">
         <v>112</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" t="s">
         <v>96</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AV9" t="s">
         <v>58</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
         <v>98</v>
       </c>
-      <c r="AW9" t="s">
-        <v>72</v>
-      </c>
       <c r="AX9" t="s">
         <v>72</v>
       </c>
@@ -2412,8 +2517,11 @@
       <c r="BA9" t="s">
         <v>72</v>
       </c>
+      <c r="BB9" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2444,54 +2552,54 @@
       <c r="J10" t="s">
         <v>72</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>194</v>
+      </c>
+      <c r="N10" t="s">
         <v>73</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>74</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>75</v>
       </c>
-      <c r="P10" t="s">
-        <v>72</v>
-      </c>
       <c r="Q10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" t="s">
         <v>76</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>77</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>78</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>79</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>80</v>
       </c>
-      <c r="V10" t="s">
-        <v>72</v>
-      </c>
       <c r="W10" t="s">
         <v>72</v>
       </c>
       <c r="X10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y10" t="s">
         <v>81</v>
       </c>
-      <c r="Y10" t="s">
-        <v>72</v>
-      </c>
       <c r="Z10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10" t="s">
         <v>82</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>83</v>
       </c>
-      <c r="AB10" t="s">
-        <v>72</v>
-      </c>
       <c r="AC10" t="s">
         <v>72</v>
       </c>
@@ -2502,38 +2610,38 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG10" t="s">
         <v>84</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>44</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>85</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>46</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>86</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>48</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>87</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>50</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>88</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>52</v>
       </c>
-      <c r="AP10" t="s">
-        <v>72</v>
-      </c>
       <c r="AQ10" t="s">
         <v>72</v>
       </c>
@@ -2541,20 +2649,20 @@
         <v>72</v>
       </c>
       <c r="AS10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT10" t="s">
         <v>56</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10" t="s">
         <v>96</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV10" t="s">
         <v>58</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>98</v>
       </c>
-      <c r="AW10" t="s">
-        <v>72</v>
-      </c>
       <c r="AX10" t="s">
         <v>72</v>
       </c>
@@ -2567,8 +2675,11 @@
       <c r="BA10" t="s">
         <v>72</v>
       </c>
+      <c r="BB10" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2599,54 +2710,54 @@
       <c r="J11" t="s">
         <v>72</v>
       </c>
-      <c r="M11" t="s">
+      <c r="L11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" t="s">
         <v>73</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>74</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>75</v>
       </c>
-      <c r="P11" t="s">
-        <v>72</v>
-      </c>
       <c r="Q11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" t="s">
         <v>76</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>77</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>78</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>79</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>80</v>
       </c>
-      <c r="V11" t="s">
-        <v>72</v>
-      </c>
       <c r="W11" t="s">
         <v>72</v>
       </c>
       <c r="X11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" t="s">
         <v>81</v>
       </c>
-      <c r="Y11" t="s">
-        <v>72</v>
-      </c>
       <c r="Z11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>83</v>
       </c>
-      <c r="AB11" t="s">
-        <v>72</v>
-      </c>
       <c r="AC11" t="s">
         <v>72</v>
       </c>
@@ -2657,35 +2768,35 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG11" t="s">
         <v>84</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>44</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>85</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>46</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>86</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>48</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>87</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>50</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" t="s">
         <v>88</v>
       </c>
-      <c r="AO11" t="s">
-        <v>72</v>
-      </c>
       <c r="AP11" t="s">
         <v>72</v>
       </c>
@@ -2722,8 +2833,11 @@
       <c r="BA11" t="s">
         <v>72</v>
       </c>
+      <c r="BB11" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2757,59 +2871,62 @@
       <c r="K12" t="s">
         <v>137</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="L12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R12" t="s">
         <v>139</v>
       </c>
-      <c r="S12" t="s">
-        <v>154</v>
-      </c>
       <c r="T12" t="s">
+        <v>153</v>
+      </c>
+      <c r="U12" t="s">
         <v>140</v>
       </c>
-      <c r="U12" t="s">
-        <v>154</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="V12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y12" t="s">
         <v>140</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>141</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>142</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>84</v>
       </c>
-      <c r="AG12" t="s">
-        <v>190</v>
-      </c>
       <c r="AH12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI12" t="s">
         <v>85</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>143</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>86</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>144</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>87</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>145</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AO12" t="s">
         <v>88</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2817,7 +2934,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
         <v>133</v>
@@ -2841,64 +2958,67 @@
         <v>151</v>
       </c>
       <c r="K13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O13" t="s">
+        <v>191</v>
+      </c>
+      <c r="R13" t="s">
         <v>152</v>
       </c>
-      <c r="N13" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="T13" t="s">
         <v>153</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
+        <v>180</v>
+      </c>
+      <c r="V13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP13" t="s">
         <v>154</v>
       </c>
-      <c r="T13" t="s">
-        <v>181</v>
-      </c>
-      <c r="U13" t="s">
-        <v>154</v>
-      </c>
-      <c r="X13" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO13" t="s">
+      <c r="AR13" t="s">
         <v>155</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR13" t="s">
+      <c r="AS13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2929,54 +3049,54 @@
       <c r="J14" t="s">
         <v>72</v>
       </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>199</v>
+      </c>
+      <c r="N14" t="s">
         <v>73</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>74</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>75</v>
       </c>
-      <c r="P14" t="s">
-        <v>72</v>
-      </c>
       <c r="Q14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" t="s">
         <v>76</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>77</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>78</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>79</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>80</v>
       </c>
-      <c r="V14" t="s">
-        <v>72</v>
-      </c>
       <c r="W14" t="s">
         <v>72</v>
       </c>
       <c r="X14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14" t="s">
         <v>81</v>
       </c>
-      <c r="Y14" t="s">
-        <v>72</v>
-      </c>
       <c r="Z14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s">
         <v>82</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>83</v>
       </c>
-      <c r="AB14" t="s">
-        <v>72</v>
-      </c>
       <c r="AC14" t="s">
         <v>72</v>
       </c>
@@ -2987,38 +3107,38 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG14" t="s">
         <v>84</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>44</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>85</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>46</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>86</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>48</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>87</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>50</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" t="s">
         <v>88</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AP14" t="s">
         <v>52</v>
       </c>
-      <c r="AP14" t="s">
-        <v>72</v>
-      </c>
       <c r="AQ14" t="s">
         <v>72</v>
       </c>
@@ -3026,23 +3146,23 @@
         <v>72</v>
       </c>
       <c r="AS14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT14" t="s">
         <v>56</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AU14" t="s">
         <v>96</v>
       </c>
-      <c r="AU14" t="s">
-        <v>72</v>
-      </c>
       <c r="AV14" t="s">
         <v>72</v>
       </c>
       <c r="AW14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX14" t="s">
         <v>60</v>
       </c>
-      <c r="AX14" t="s">
-        <v>72</v>
-      </c>
       <c r="AY14" t="s">
         <v>72</v>
       </c>
@@ -3052,8 +3172,11 @@
       <c r="BA14" t="s">
         <v>72</v>
       </c>
+      <c r="BB14" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3061,7 +3184,7 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
@@ -3070,112 +3193,115 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" t="s">
         <v>161</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N15" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s">
+        <v>79</v>
+      </c>
+      <c r="V15" t="s">
+        <v>80</v>
+      </c>
+      <c r="W15" t="s">
+        <v>72</v>
+      </c>
+      <c r="X15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT15" t="s">
         <v>162</v>
       </c>
-      <c r="M15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>76</v>
-      </c>
-      <c r="R15" t="s">
-        <v>77</v>
-      </c>
-      <c r="S15" t="s">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U15" t="s">
-        <v>80</v>
-      </c>
-      <c r="V15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W15" t="s">
-        <v>72</v>
-      </c>
-      <c r="X15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR15" t="s">
+      <c r="AU15" t="s">
         <v>96</v>
       </c>
-      <c r="AS15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3206,54 +3332,54 @@
       <c r="J16" t="s">
         <v>132</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" t="s">
         <v>73</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>74</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>75</v>
       </c>
-      <c r="P16" t="s">
-        <v>72</v>
-      </c>
       <c r="Q16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R16" t="s">
         <v>76</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>77</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>78</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>79</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>80</v>
       </c>
-      <c r="V16" t="s">
-        <v>72</v>
-      </c>
       <c r="W16" t="s">
         <v>72</v>
       </c>
       <c r="X16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y16" t="s">
         <v>81</v>
       </c>
-      <c r="Y16" t="s">
-        <v>72</v>
-      </c>
       <c r="Z16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA16" t="s">
         <v>82</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>83</v>
       </c>
-      <c r="AB16" t="s">
-        <v>72</v>
-      </c>
       <c r="AC16" t="s">
         <v>72</v>
       </c>
@@ -3264,36 +3390,36 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG16" t="s">
         <v>84</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>44</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>85</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>46</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>86</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>48</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>87</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>50</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AO16" t="s">
         <v>88</v>
       </c>
-      <c r="AP16" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU16" t="s">
+      <c r="AQ16" t="s">
         <v>72</v>
       </c>
       <c r="AV16" t="s">
@@ -3314,8 +3440,11 @@
       <c r="BA16" t="s">
         <v>72</v>
       </c>
+      <c r="BB16" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3323,85 +3452,91 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
         <v>70</v>
       </c>
       <c r="H17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="N17" s="6">
+      <c r="K17" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O17" s="6">
         <v>-99999</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>75</v>
       </c>
-      <c r="Q17" t="s">
-        <v>153</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="R17" t="s">
+        <v>152</v>
+      </c>
+      <c r="T17" t="s">
+        <v>170</v>
+      </c>
+      <c r="U17" t="s">
+        <v>180</v>
+      </c>
+      <c r="V17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA17" t="s">
         <v>171</v>
       </c>
-      <c r="T17" t="s">
+      <c r="AB17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN17" t="s">
         <v>181</v>
       </c>
-      <c r="U17" t="s">
-        <v>171</v>
-      </c>
-      <c r="X17" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN17" t="s">
+      <c r="AO17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -3409,85 +3544,91 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
         <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" t="s">
+        <v>219</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O18" s="6">
+        <v>-99999</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>152</v>
+      </c>
+      <c r="T18" t="s">
         <v>170</v>
       </c>
-      <c r="N18" s="6">
-        <v>-99999</v>
-      </c>
-      <c r="O18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>153</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
+        <v>180</v>
+      </c>
+      <c r="V18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA18" t="s">
         <v>171</v>
       </c>
-      <c r="T18" t="s">
+      <c r="AB18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN18" t="s">
         <v>181</v>
       </c>
-      <c r="U18" t="s">
-        <v>171</v>
-      </c>
-      <c r="X18" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN18" t="s">
+      <c r="AO18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -3495,76 +3636,82 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
         <v>128</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
         <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
-      </c>
-      <c r="N19" s="6">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" t="s">
+        <v>208</v>
+      </c>
+      <c r="O19" s="6">
         <v>-99999</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>75</v>
       </c>
-      <c r="Q19" t="s">
-        <v>153</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="R19" t="s">
+        <v>152</v>
+      </c>
+      <c r="T19" t="s">
+        <v>170</v>
+      </c>
+      <c r="U19" t="s">
+        <v>180</v>
+      </c>
+      <c r="V19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA19" t="s">
         <v>171</v>
       </c>
-      <c r="T19" t="s">
-        <v>181</v>
-      </c>
-      <c r="U19" t="s">
-        <v>171</v>
-      </c>
-      <c r="X19" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z19" t="s">
+      <c r="AB19" t="s">
         <v>172</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AG19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s">
         <v>173</v>
       </c>
-      <c r="AF19" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG19" t="s">
+      <c r="AI19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>174</v>
       </c>
-      <c r="AH19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI19" t="s">
+      <c r="AK19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL19" t="s">
         <v>175</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3572,82 +3719,88 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
         <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" t="s">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" s="6">
+        <v>-99999</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s">
+        <v>152</v>
+      </c>
+      <c r="T20" t="s">
         <v>170</v>
       </c>
-      <c r="N20" s="6">
-        <v>-99999</v>
-      </c>
-      <c r="O20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>153</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
+        <v>180</v>
+      </c>
+      <c r="V20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA20" t="s">
         <v>171</v>
       </c>
-      <c r="T20" t="s">
-        <v>181</v>
-      </c>
-      <c r="U20" t="s">
-        <v>171</v>
-      </c>
-      <c r="X20" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z20" t="s">
+      <c r="AB20" t="s">
         <v>172</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AG20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s">
         <v>173</v>
       </c>
-      <c r="AF20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG20" t="s">
+      <c r="AI20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>174</v>
       </c>
-      <c r="AH20" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI20" t="s">
+      <c r="AK20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL20" t="s">
         <v>175</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>87</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:42">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -3655,7 +3808,7 @@
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s">
         <v>133</v>
@@ -3664,67 +3817,73 @@
         <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
         <v>70</v>
       </c>
       <c r="H21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>139</v>
+      </c>
+      <c r="T21" t="s">
+        <v>185</v>
+      </c>
+      <c r="U21" t="s">
+        <v>140</v>
+      </c>
+      <c r="V21" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s">
         <v>189</v>
       </c>
-      <c r="O21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>139</v>
-      </c>
-      <c r="S21" t="s">
-        <v>186</v>
-      </c>
-      <c r="T21" t="s">
-        <v>140</v>
-      </c>
-      <c r="U21" t="s">
-        <v>186</v>
-      </c>
-      <c r="X21" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>85</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>143</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>86</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AL21" t="s">
         <v>144</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>87</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AP21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:42">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3732,7 +3891,7 @@
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
         <v>133</v>
@@ -3741,63 +3900,66 @@
         <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
         <v>70</v>
       </c>
       <c r="H22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="L22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P22" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" t="s">
+        <v>139</v>
+      </c>
+      <c r="T22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U22" t="s">
+        <v>140</v>
+      </c>
+      <c r="V22" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="s">
         <v>189</v>
       </c>
-      <c r="O22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>139</v>
-      </c>
-      <c r="S22" t="s">
-        <v>186</v>
-      </c>
-      <c r="T22" t="s">
-        <v>140</v>
-      </c>
-      <c r="U22" t="s">
-        <v>186</v>
-      </c>
-      <c r="X22" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>85</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>143</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>86</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>144</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>87</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AP22" t="s">
         <v>146</v>
       </c>
     </row>

--- a/product_data/processing_metadata/C5/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C5/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{8B370A32-E872-4C94-946E-4B177D89299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{504C778F-B635-4ADC-B76A-EEF7300EF9B7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{AFD6FFAF-44F9-4ECC-823B-3BD3D1ABBAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69A0090-8F83-4B93-AEAC-DC2318257597}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,9 +435,6 @@
     <t>gregory.c.johnson@noaa.gov</t>
   </si>
   <si>
-    <t>PANGEA</t>
-  </si>
-  <si>
     <t>Stephanie de Villiers</t>
   </si>
   <si>
@@ -612,9 +609,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>citations</t>
-  </si>
-  <si>
     <t>49NZ20031209_prof</t>
   </si>
   <si>
@@ -694,6 +688,12 @@
   </si>
   <si>
     <t>10.17600/4200010</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>PANGEAE</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1128,7 +1128,7 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="M1" t="s">
         <v>23</v>
@@ -1289,7 +1289,7 @@
         <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N2" t="s">
         <v>73</v>
@@ -1447,7 +1447,7 @@
         <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N3" t="s">
         <v>73</v>
@@ -1605,7 +1605,7 @@
         <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N4" t="s">
         <v>73</v>
@@ -1763,7 +1763,7 @@
         <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
@@ -1921,7 +1921,7 @@
         <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N6" t="s">
         <v>73</v>
@@ -2079,7 +2079,7 @@
         <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N7" t="s">
         <v>73</v>
@@ -2237,7 +2237,7 @@
         <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
@@ -2395,7 +2395,7 @@
         <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
@@ -2553,7 +2553,7 @@
         <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
@@ -2711,7 +2711,7 @@
         <v>72</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
@@ -2845,85 +2845,85 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
         <v>70</v>
       </c>
       <c r="H12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
         <v>134</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" t="s">
         <v>136</v>
       </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R12" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" t="s">
+        <v>152</v>
+      </c>
+      <c r="U12" t="s">
         <v>139</v>
       </c>
-      <c r="T12" t="s">
-        <v>153</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA12" t="s">
         <v>140</v>
       </c>
-      <c r="V12" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>141</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>142</v>
       </c>
       <c r="AG12" t="s">
         <v>84</v>
       </c>
       <c r="AH12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI12" t="s">
         <v>85</v>
       </c>
       <c r="AJ12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s">
         <v>86</v>
       </c>
       <c r="AL12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM12" t="s">
         <v>87</v>
       </c>
       <c r="AN12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO12" t="s">
         <v>88</v>
       </c>
       <c r="AP12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:54">
@@ -2934,85 +2934,85 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
         <v>70</v>
       </c>
       <c r="H13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" t="s">
         <v>148</v>
       </c>
-      <c r="I13" t="s">
-        <v>149</v>
-      </c>
       <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O13" t="s">
+        <v>190</v>
+      </c>
+      <c r="R13" t="s">
         <v>151</v>
       </c>
-      <c r="K13" t="s">
-        <v>213</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O13" t="s">
-        <v>191</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>152</v>
       </c>
-      <c r="T13" t="s">
-        <v>153</v>
-      </c>
       <c r="U13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB13" t="s">
         <v>141</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>142</v>
       </c>
       <c r="AG13" t="s">
         <v>84</v>
       </c>
       <c r="AH13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI13" t="s">
         <v>85</v>
       </c>
       <c r="AJ13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s">
         <v>86</v>
       </c>
       <c r="AL13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM13" t="s">
         <v>87</v>
       </c>
       <c r="AP13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR13" t="s">
         <v>154</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>155</v>
       </c>
       <c r="AS13" t="s">
         <v>96</v>
@@ -3050,7 +3050,7 @@
         <v>72</v>
       </c>
       <c r="L14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N14" t="s">
         <v>73</v>
@@ -3184,7 +3184,7 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
@@ -3193,25 +3193,25 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" t="s">
         <v>160</v>
       </c>
-      <c r="K15" t="s">
-        <v>161</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N15" t="s">
         <v>73</v>
@@ -3295,7 +3295,7 @@
         <v>96</v>
       </c>
       <c r="AT15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AU15" t="s">
         <v>96</v>
@@ -3333,7 +3333,7 @@
         <v>132</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N16" t="s">
         <v>73</v>
@@ -3452,34 +3452,34 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
         <v>70</v>
       </c>
       <c r="H17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I17" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="K17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O17" s="6">
         <v>-99999</v>
@@ -3488,49 +3488,49 @@
         <v>75</v>
       </c>
       <c r="R17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T17" t="s">
+        <v>169</v>
+      </c>
+      <c r="U17" t="s">
+        <v>179</v>
+      </c>
+      <c r="V17" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA17" t="s">
         <v>170</v>
       </c>
-      <c r="U17" t="s">
-        <v>180</v>
-      </c>
-      <c r="V17" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>171</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>172</v>
       </c>
       <c r="AG17" t="s">
         <v>84</v>
       </c>
       <c r="AH17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI17" t="s">
         <v>85</v>
       </c>
       <c r="AJ17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK17" t="s">
         <v>86</v>
       </c>
       <c r="AL17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM17" t="s">
         <v>87</v>
       </c>
       <c r="AN17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AO17" t="s">
         <v>88</v>
@@ -3544,34 +3544,34 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
         <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="K18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O18" s="6">
         <v>-99999</v>
@@ -3580,49 +3580,49 @@
         <v>75</v>
       </c>
       <c r="R18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T18" t="s">
+        <v>169</v>
+      </c>
+      <c r="U18" t="s">
+        <v>179</v>
+      </c>
+      <c r="V18" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA18" t="s">
         <v>170</v>
       </c>
-      <c r="U18" t="s">
-        <v>180</v>
-      </c>
-      <c r="V18" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>171</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>172</v>
       </c>
       <c r="AG18" t="s">
         <v>84</v>
       </c>
       <c r="AH18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI18" t="s">
         <v>85</v>
       </c>
       <c r="AJ18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK18" t="s">
         <v>86</v>
       </c>
       <c r="AL18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM18" t="s">
         <v>87</v>
       </c>
       <c r="AN18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AO18" t="s">
         <v>88</v>
@@ -3636,31 +3636,31 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
         <v>128</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
         <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O19" s="6">
         <v>-99999</v>
@@ -3669,43 +3669,43 @@
         <v>75</v>
       </c>
       <c r="R19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T19" t="s">
+        <v>169</v>
+      </c>
+      <c r="U19" t="s">
+        <v>179</v>
+      </c>
+      <c r="V19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA19" t="s">
         <v>170</v>
       </c>
-      <c r="U19" t="s">
-        <v>180</v>
-      </c>
-      <c r="V19" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>171</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>172</v>
       </c>
       <c r="AG19" t="s">
         <v>84</v>
       </c>
       <c r="AH19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI19" t="s">
         <v>85</v>
       </c>
       <c r="AJ19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK19" t="s">
         <v>86</v>
       </c>
       <c r="AL19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM19" t="s">
         <v>87</v>
@@ -3719,34 +3719,34 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
         <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="K20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O20" s="6">
         <v>-99999</v>
@@ -3755,43 +3755,43 @@
         <v>75</v>
       </c>
       <c r="R20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T20" t="s">
+        <v>169</v>
+      </c>
+      <c r="U20" t="s">
+        <v>179</v>
+      </c>
+      <c r="V20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA20" t="s">
         <v>170</v>
       </c>
-      <c r="U20" t="s">
-        <v>180</v>
-      </c>
-      <c r="V20" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>171</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>172</v>
       </c>
       <c r="AG20" t="s">
         <v>84</v>
       </c>
       <c r="AH20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI20" t="s">
         <v>85</v>
       </c>
       <c r="AJ20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK20" t="s">
         <v>86</v>
       </c>
       <c r="AL20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM20" t="s">
         <v>87</v>
@@ -3808,79 +3808,79 @@
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
         <v>70</v>
       </c>
       <c r="H21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P21" t="s">
         <v>75</v>
       </c>
       <c r="R21" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" t="s">
+        <v>184</v>
+      </c>
+      <c r="U21" t="s">
         <v>139</v>
       </c>
-      <c r="T21" t="s">
-        <v>185</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA21" t="s">
         <v>140</v>
       </c>
-      <c r="V21" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>141</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>142</v>
       </c>
       <c r="AG21" t="s">
         <v>84</v>
       </c>
       <c r="AH21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI21" t="s">
         <v>85</v>
       </c>
       <c r="AJ21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK21" t="s">
         <v>86</v>
       </c>
       <c r="AL21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM21" t="s">
         <v>87</v>
       </c>
       <c r="AP21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -3891,76 +3891,76 @@
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
         <v>70</v>
       </c>
       <c r="H22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="L22" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P22" t="s">
         <v>75</v>
       </c>
       <c r="R22" t="s">
+        <v>138</v>
+      </c>
+      <c r="T22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U22" t="s">
         <v>139</v>
       </c>
-      <c r="T22" t="s">
-        <v>185</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA22" t="s">
         <v>140</v>
       </c>
-      <c r="V22" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>141</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>142</v>
       </c>
       <c r="AG22" t="s">
         <v>84</v>
       </c>
       <c r="AH22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI22" t="s">
         <v>85</v>
       </c>
       <c r="AJ22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK22" t="s">
         <v>86</v>
       </c>
       <c r="AL22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM22" t="s">
         <v>87</v>
       </c>
       <c r="AP22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/C5/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C5/PROF_meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{AFD6FFAF-44F9-4ECC-823B-3BD3D1ABBAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69A0090-8F83-4B93-AEAC-DC2318257597}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{AFD6FFAF-44F9-4ECC-823B-3BD3D1ABBAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{690BD356-4B02-442C-9D4F-D6EB6E66302D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="189">
   <si>
     <t>49NZ20031209</t>
   </si>
@@ -411,18 +411,6 @@
     <t>31DS19940126</t>
   </si>
   <si>
-    <t>35MF19980121</t>
-  </si>
-  <si>
-    <t>35MF20040103</t>
-  </si>
-  <si>
-    <t>35MF19950927</t>
-  </si>
-  <si>
-    <t>35MF19940126</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/CCHDO/31DSCG94_1/exchange_ctd</t>
   </si>
   <si>
@@ -522,72 +510,15 @@
     <t>CTDBACKSCATTER</t>
   </si>
   <si>
-    <t>SISMER</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/PANGEAE/29HE19951203/ctd/split</t>
   </si>
   <si>
     <t>E:/Data_downloads/PANGEAE/29HE19960117/ctd/split</t>
   </si>
   <si>
-    <t>Nicolas Metzl</t>
-  </si>
-  <si>
-    <t>Marion Dufresne</t>
-  </si>
-  <si>
-    <t>CNRS</t>
-  </si>
-  <si>
-    <t>nicolas.metzl@upmc.fr</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>LATITUDE</t>
-  </si>
-  <si>
-    <t>LONGITUDE</t>
-  </si>
-  <si>
-    <t>PRES</t>
-  </si>
-  <si>
-    <t>TEMP</t>
-  </si>
-  <si>
-    <t>PSAL</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/SISMER/35MF19980121/ctd/split</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/SISMER/35MF20040103/ctd/split</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/SISMER/35MF19940126/ctd/split</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/SISMER/35MF19950927/ctd/split</t>
-  </si>
-  <si>
     <t>%Y-%m-%dT%H:%M:%S</t>
   </si>
   <si>
-    <t>DOXY</t>
-  </si>
-  <si>
-    <t>Catherine Jeandel</t>
-  </si>
-  <si>
-    <t>catherine.jeandel@cnes.fr</t>
-  </si>
-  <si>
-    <t>Gerard Ruzie</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -648,18 +579,6 @@
     <t>35XI20090905_prof</t>
   </si>
   <si>
-    <t>35MF19980121_prof</t>
-  </si>
-  <si>
-    <t>35MF20040103_prof</t>
-  </si>
-  <si>
-    <t>35MF19940126_prof</t>
-  </si>
-  <si>
-    <t>35MF19950927_prof</t>
-  </si>
-  <si>
     <t>29HE19951203_prof</t>
   </si>
   <si>
@@ -676,18 +595,6 @@
   </si>
   <si>
     <t>49NZ20121128_prof</t>
-  </si>
-  <si>
-    <t>10.17600/95200100</t>
-  </si>
-  <si>
-    <t>10.17600/94200020</t>
-  </si>
-  <si>
-    <t>10.17600/98200090</t>
-  </si>
-  <si>
-    <t>10.17600/4200010</t>
   </si>
   <si>
     <t>citation</t>
@@ -700,7 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,12 +627,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -755,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -764,9 +665,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1082,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E1F602-FBD5-4365-9721-E3AE3B06DFBC}">
-  <dimension ref="A1:BB22"/>
+  <dimension ref="A1:BB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1128,7 +1026,7 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="M1" t="s">
         <v>23</v>
@@ -1289,7 +1187,7 @@
         <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N2" t="s">
         <v>73</v>
@@ -1447,7 +1345,7 @@
         <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="N3" t="s">
         <v>73</v>
@@ -1605,7 +1503,7 @@
         <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="N4" t="s">
         <v>73</v>
@@ -1763,7 +1661,7 @@
         <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
@@ -1921,7 +1819,7 @@
         <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="N6" t="s">
         <v>73</v>
@@ -2079,7 +1977,7 @@
         <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="N7" t="s">
         <v>73</v>
@@ -2237,7 +2135,7 @@
         <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
@@ -2395,7 +2293,7 @@
         <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
@@ -2553,7 +2451,7 @@
         <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
@@ -2711,7 +2609,7 @@
         <v>72</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
@@ -2845,85 +2743,85 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R12" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="T12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U12" t="s">
         <v>135</v>
       </c>
-      <c r="K12" t="s">
+      <c r="V12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA12" t="s">
         <v>136</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R12" t="s">
-        <v>138</v>
-      </c>
-      <c r="T12" t="s">
-        <v>152</v>
-      </c>
-      <c r="U12" t="s">
-        <v>139</v>
-      </c>
-      <c r="V12" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>140</v>
-      </c>
       <c r="AB12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s">
         <v>84</v>
       </c>
       <c r="AH12" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="AI12" t="s">
         <v>85</v>
       </c>
       <c r="AJ12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s">
         <v>86</v>
       </c>
       <c r="AL12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AM12" t="s">
         <v>87</v>
       </c>
       <c r="AN12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AO12" t="s">
         <v>88</v>
       </c>
       <c r="AP12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:54">
@@ -2934,85 +2832,85 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>70</v>
       </c>
       <c r="H13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" t="s">
+        <v>167</v>
+      </c>
+      <c r="R13" t="s">
         <v>147</v>
       </c>
-      <c r="I13" t="s">
+      <c r="T13" t="s">
         <v>148</v>
       </c>
-      <c r="J13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13" t="s">
-        <v>211</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="O13" t="s">
-        <v>190</v>
-      </c>
-      <c r="R13" t="s">
-        <v>151</v>
-      </c>
-      <c r="T13" t="s">
-        <v>152</v>
-      </c>
       <c r="U13" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="V13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AB13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s">
         <v>84</v>
       </c>
       <c r="AH13" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="AI13" t="s">
         <v>85</v>
       </c>
       <c r="AJ13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s">
         <v>86</v>
       </c>
       <c r="AL13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AM13" t="s">
         <v>87</v>
       </c>
       <c r="AP13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AR13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AS13" t="s">
         <v>96</v>
@@ -3050,7 +2948,7 @@
         <v>72</v>
       </c>
       <c r="L14" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="N14" t="s">
         <v>73</v>
@@ -3184,7 +3082,7 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
@@ -3193,25 +3091,25 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s">
         <v>73</v>
@@ -3295,7 +3193,7 @@
         <v>96</v>
       </c>
       <c r="AT15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AU15" t="s">
         <v>96</v>
@@ -3309,7 +3207,7 @@
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
@@ -3318,22 +3216,22 @@
         <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
         <v>110</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s">
         <v>73</v>
@@ -3452,88 +3350,79 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
         <v>162</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" t="s">
-        <v>166</v>
       </c>
       <c r="G17" t="s">
         <v>70</v>
       </c>
       <c r="H17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="I17" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K17" t="s">
-        <v>216</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O17" s="6">
-        <v>-99999</v>
       </c>
       <c r="P17" t="s">
         <v>75</v>
       </c>
       <c r="R17" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="T17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="U17" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="V17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="AA17" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AB17" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="AG17" t="s">
         <v>84</v>
       </c>
       <c r="AH17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AI17" t="s">
         <v>85</v>
       </c>
       <c r="AJ17" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s">
         <v>86</v>
       </c>
       <c r="AL17" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="AM17" t="s">
         <v>87</v>
       </c>
-      <c r="AN17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>88</v>
+      <c r="AP17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:42">
@@ -3544,436 +3433,86 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
         <v>162</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" t="s">
-        <v>166</v>
       </c>
       <c r="G18" t="s">
         <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>165</v>
-      </c>
-      <c r="I18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="K18" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O18" s="6">
-        <v>-99999</v>
+        <v>182</v>
       </c>
       <c r="P18" t="s">
         <v>75</v>
       </c>
       <c r="R18" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="T18" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="U18" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="V18" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="AA18" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AB18" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="AG18" t="s">
         <v>84</v>
       </c>
       <c r="AH18" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AI18" t="s">
         <v>85</v>
       </c>
       <c r="AJ18" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s">
         <v>86</v>
       </c>
       <c r="AL18" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="AM18" t="s">
         <v>87</v>
       </c>
-      <c r="AN18" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" t="s">
-        <v>183</v>
-      </c>
-      <c r="I19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" t="s">
-        <v>206</v>
-      </c>
-      <c r="O19" s="6">
-        <v>-99999</v>
-      </c>
-      <c r="P19" t="s">
-        <v>75</v>
-      </c>
-      <c r="R19" t="s">
-        <v>151</v>
-      </c>
-      <c r="T19" t="s">
-        <v>169</v>
-      </c>
-      <c r="U19" t="s">
-        <v>179</v>
-      </c>
-      <c r="V19" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" t="s">
-        <v>165</v>
-      </c>
-      <c r="I20" t="s">
-        <v>167</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="K20" t="s">
-        <v>214</v>
-      </c>
-      <c r="L20" t="s">
-        <v>207</v>
-      </c>
-      <c r="O20" s="6">
-        <v>-99999</v>
-      </c>
-      <c r="P20" t="s">
-        <v>75</v>
-      </c>
-      <c r="R20" t="s">
-        <v>151</v>
-      </c>
-      <c r="T20" t="s">
-        <v>169</v>
-      </c>
-      <c r="U20" t="s">
-        <v>179</v>
-      </c>
-      <c r="V20" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" t="s">
-        <v>186</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K21" t="s">
-        <v>212</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="P21" t="s">
-        <v>75</v>
-      </c>
-      <c r="R21" t="s">
-        <v>138</v>
-      </c>
-      <c r="T21" t="s">
-        <v>184</v>
-      </c>
-      <c r="U21" t="s">
-        <v>139</v>
-      </c>
-      <c r="V21" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="AP18" t="s">
         <v>141</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" t="s">
-        <v>185</v>
-      </c>
-      <c r="G22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" t="s">
-        <v>186</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="P22" t="s">
-        <v>75</v>
-      </c>
-      <c r="R22" t="s">
-        <v>138</v>
-      </c>
-      <c r="T22" t="s">
-        <v>184</v>
-      </c>
-      <c r="U22" t="s">
-        <v>139</v>
-      </c>
-      <c r="V22" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J12" r:id="rId1" xr:uid="{A631CD43-7212-43D1-AE01-DA07FD8B3476}"/>
     <hyperlink ref="J15" r:id="rId2" xr:uid="{12E1FA95-3E17-4171-A75D-5F9052E2EC30}"/>
-    <hyperlink ref="J18" r:id="rId3" xr:uid="{551EF7CC-50E8-40AC-8262-C0A4BE5B98F9}"/>
-    <hyperlink ref="J17" r:id="rId4" xr:uid="{35B5BB5C-C679-454E-97EF-82FF777A7014}"/>
-    <hyperlink ref="J20" r:id="rId5" xr:uid="{DF48CDF4-AAFB-46D3-95A6-F9E5331F7877}"/>
-    <hyperlink ref="J21" r:id="rId6" xr:uid="{69F5D7C4-5962-4E66-B87E-A3EBC11A349C}"/>
-    <hyperlink ref="J22" r:id="rId7" xr:uid="{3604BA82-35F2-451E-B211-42573A89F825}"/>
+    <hyperlink ref="J17" r:id="rId3" xr:uid="{69F5D7C4-5962-4E66-B87E-A3EBC11A349C}"/>
+    <hyperlink ref="J18" r:id="rId4" xr:uid="{3604BA82-35F2-451E-B211-42573A89F825}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/product_data/processing_metadata/C5/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C5/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{AFD6FFAF-44F9-4ECC-823B-3BD3D1ABBAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{690BD356-4B02-442C-9D4F-D6EB6E66302D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{AFD6FFAF-44F9-4ECC-823B-3BD3D1ABBAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14E5FE35-6C99-49DA-B782-95807BE7964D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D5457A-6BC7-4401-B590-10CB8DC6A801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="190">
   <si>
     <t>49NZ20031209</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>PANGEAE</t>
+  </si>
+  <si>
+    <t>cast</t>
   </si>
 </sst>
 </file>
@@ -983,7 +986,7 @@
   <dimension ref="A1:BB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2772,6 +2775,9 @@
       <c r="L12" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
       <c r="R12" t="s">
         <v>134</v>
       </c>
@@ -2864,8 +2870,14 @@
       <c r="O13" t="s">
         <v>167</v>
       </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
       <c r="R13" t="s">
         <v>147</v>
+      </c>
+      <c r="S13" t="s">
+        <v>189</v>
       </c>
       <c r="T13" t="s">
         <v>148</v>
